--- a/data/trans_orig/P1413-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABFCF316-2AE2-480A-86F5-F82F4B0C79DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7074FBE9-A220-4962-B82E-4F7CFE257610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7454089-2C1D-426C-9AE9-C70DFB47D49E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4307FDCB-F05B-4308-99A6-35ADF1E266EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="567">
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1381 +95,1417 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
     <t>3,12%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>96,88%</t>
   </si>
   <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>10,54%</t>
+    <t>13,01%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>89,49%</t>
   </si>
   <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -1478,79 +1514,79 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>71,7%</t>
   </si>
   <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>1,15%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>36,16%</t>
+    <t>35,93%</t>
   </si>
   <si>
     <t>42,36%</t>
@@ -1559,94 +1595,91 @@
     <t>33,28%</t>
   </si>
   <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>72,63%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
   </si>
   <si>
     <t>60,33%</t>
   </si>
   <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>66,49%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
   </si>
   <si>
     <t>57,01%</t>
   </si>
   <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>47,17%</t>
   </si>
   <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
   <si>
     <t>42,99%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
   </si>
   <si>
     <t>52,83%</t>
   </si>
   <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -1655,64 +1688,58 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>20,35%</t>
   </si>
   <si>
     <t>32,38%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
   </si>
   <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>79,65%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
+    <t>69,4%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7424A837-5AFB-43C2-B50A-523D23693A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE9BFC5-9E71-4DCA-B6AA-9E9FE9DE7934}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3613,7 +3640,7 @@
         <v>5335</v>
       </c>
       <c r="N30" s="7">
-        <v>5475273</v>
+        <v>5475274</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>160</v>
@@ -3664,7 +3691,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>36</v>
@@ -3700,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EBB0EE-1DF8-4EF0-B164-F8249367D08F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD83C81-A6DB-48F8-B8EA-009E46EC8FD4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3905,13 +3932,13 @@
         <v>27817</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3953,13 @@
         <v>442892</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>405</v>
@@ -3941,13 +3968,13 @@
         <v>413667</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>841</v>
@@ -3956,13 +3983,13 @@
         <v>856559</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,7 +4078,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4081,13 +4108,13 @@
         <v>32852</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -4096,13 +4123,13 @@
         <v>49619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M9" s="7">
         <v>76</v>
@@ -4111,13 +4138,13 @@
         <v>82471</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4159,13 @@
         <v>654235</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>526</v>
@@ -4147,13 +4174,13 @@
         <v>560636</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>1162</v>
@@ -4162,13 +4189,13 @@
         <v>1214871</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4314,13 @@
         <v>42863</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -4302,13 +4329,13 @@
         <v>92410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -4317,13 +4344,13 @@
         <v>135273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4365,13 @@
         <v>639000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>578</v>
@@ -4353,13 +4380,13 @@
         <v>617164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>1186</v>
@@ -4368,13 +4395,13 @@
         <v>1256164</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4463,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4478,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4520,13 @@
         <v>55332</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>95</v>
@@ -4508,13 +4535,13 @@
         <v>107456</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -4523,13 +4550,13 @@
         <v>162788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4571,13 @@
         <v>559285</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H18" s="7">
         <v>443</v>
@@ -4559,13 +4586,13 @@
         <v>506808</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M18" s="7">
         <v>940</v>
@@ -4574,13 +4601,13 @@
         <v>1066092</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4699,13 +4726,13 @@
         <v>53060</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -4714,13 +4741,13 @@
         <v>117791</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M21" s="7">
         <v>157</v>
@@ -4729,13 +4756,13 @@
         <v>170851</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4777,13 @@
         <v>376369</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>300</v>
@@ -4765,13 +4792,13 @@
         <v>330009</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>642</v>
@@ -4780,13 +4807,13 @@
         <v>706378</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,7 +4902,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4905,13 +4932,13 @@
         <v>113593</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H25" s="7">
         <v>243</v>
@@ -4920,13 +4947,13 @@
         <v>261707</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M25" s="7">
         <v>345</v>
@@ -4935,13 +4962,13 @@
         <v>375300</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4983,13 @@
         <v>446044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H26" s="7">
         <v>451</v>
@@ -4971,13 +4998,13 @@
         <v>481268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M26" s="7">
         <v>853</v>
@@ -4986,13 +5013,13 @@
         <v>927312</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5138,13 @@
         <v>308953</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H29" s="7">
         <v>593</v>
@@ -5126,28 +5153,28 @@
         <v>645546</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M29" s="7">
         <v>881</v>
       </c>
       <c r="N29" s="7">
-        <v>954499</v>
+        <v>954500</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5189,13 @@
         <v>3117826</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H30" s="7">
         <v>2703</v>
@@ -5177,13 +5204,13 @@
         <v>2909552</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M30" s="7">
         <v>5624</v>
@@ -5192,13 +5219,13 @@
         <v>6027378</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,7 +5267,7 @@
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>36</v>
@@ -5276,7 +5303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07D63A0-6796-4FCF-89A1-4EF94B6059FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99573FF9-5481-4D8B-A98B-9AF295E3CA00}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5293,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5421,7 +5448,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5451,13 +5478,13 @@
         <v>2207</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5466,13 +5493,13 @@
         <v>10667</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5481,13 +5508,13 @@
         <v>12874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5529,13 @@
         <v>417256</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H6" s="7">
         <v>393</v>
@@ -5517,13 +5544,13 @@
         <v>385088</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="M6" s="7">
         <v>784</v>
@@ -5532,13 +5559,13 @@
         <v>802344</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,7 +5639,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5627,7 +5654,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5642,7 +5669,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5684,13 @@
         <v>16560</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -5672,13 +5699,13 @@
         <v>32161</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -5687,13 +5714,13 @@
         <v>48722</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5735,13 @@
         <v>573936</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>547</v>
@@ -5723,13 +5750,13 @@
         <v>531383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>1100</v>
@@ -5738,13 +5765,13 @@
         <v>1105318</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,7 +5845,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5863,13 +5890,13 @@
         <v>45561</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -5878,13 +5905,13 @@
         <v>57571</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -5893,13 +5920,13 @@
         <v>103133</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5941,13 @@
         <v>623536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>606</v>
@@ -5929,13 +5956,13 @@
         <v>603815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>1202</v>
@@ -5944,13 +5971,13 @@
         <v>1227350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,7 +6051,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6069,13 +6096,13 @@
         <v>59145</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -6084,13 +6111,13 @@
         <v>86220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -6099,13 +6126,13 @@
         <v>145365</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6147,13 @@
         <v>586903</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="H18" s="7">
         <v>522</v>
@@ -6135,28 +6162,28 @@
         <v>562857</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M18" s="7">
         <v>1050</v>
       </c>
       <c r="N18" s="7">
-        <v>1149760</v>
+        <v>1149761</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,7 +6225,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -6245,7 +6272,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6275,13 +6302,13 @@
         <v>59303</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="H21" s="7">
         <v>91</v>
@@ -6290,13 +6317,13 @@
         <v>103989</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="M21" s="7">
         <v>142</v>
@@ -6305,13 +6332,13 @@
         <v>163292</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6353,13 @@
         <v>418615</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="H22" s="7">
         <v>342</v>
@@ -6341,13 +6368,13 @@
         <v>392860</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
         <v>715</v>
@@ -6356,13 +6383,13 @@
         <v>811475</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6508,13 @@
         <v>94713</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="H25" s="7">
         <v>170</v>
@@ -6496,13 +6523,13 @@
         <v>202131</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="M25" s="7">
         <v>270</v>
@@ -6511,13 +6538,13 @@
         <v>296844</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6559,13 @@
         <v>496615</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="H26" s="7">
         <v>485</v>
@@ -6547,13 +6574,13 @@
         <v>575800</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="M26" s="7">
         <v>1012</v>
@@ -6562,13 +6589,13 @@
         <v>1072415</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +6714,13 @@
         <v>277488</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>400</v>
+        <v>212</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="H29" s="7">
         <v>443</v>
@@ -6702,13 +6729,13 @@
         <v>492741</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="M29" s="7">
         <v>706</v>
@@ -6717,13 +6744,13 @@
         <v>770229</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,13 +6765,13 @@
         <v>3116862</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>409</v>
+        <v>222</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="H30" s="7">
         <v>2895</v>
@@ -6753,13 +6780,13 @@
         <v>3051801</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="M30" s="7">
         <v>5863</v>
@@ -6768,13 +6795,13 @@
         <v>6168663</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,7 +6879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3CB094-C22D-4AF5-A7E7-9FA2C74D6509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C6D3C5-2DCE-420D-9902-688573DEC805}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6869,7 +6896,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6982,7 +7009,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6997,7 +7024,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>420</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7012,7 +7039,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,13 +7054,13 @@
         <v>16858</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -7042,13 +7069,13 @@
         <v>34770</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -7060,10 +7087,10 @@
         <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>436</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,13 +7105,13 @@
         <v>360821</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>430</v>
+        <v>292</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H6" s="7">
         <v>191</v>
@@ -7093,13 +7120,13 @@
         <v>320187</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M6" s="7">
         <v>356</v>
@@ -7111,10 +7138,10 @@
         <v>50</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>177</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,7 +7215,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7197,13 +7224,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7212,13 +7239,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7260,13 @@
         <v>30588</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -7248,13 +7275,13 @@
         <v>55982</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="M9" s="7">
         <v>71</v>
@@ -7263,13 +7290,13 @@
         <v>86569</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,13 +7311,13 @@
         <v>395640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H10" s="7">
         <v>411</v>
@@ -7299,13 +7326,13 @@
         <v>442596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>461</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="M10" s="7">
         <v>690</v>
@@ -7314,13 +7341,13 @@
         <v>838235</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,7 +7421,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7403,13 +7430,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>204</v>
+        <v>467</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7418,13 +7445,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,13 +7466,13 @@
         <v>58456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -7454,13 +7481,13 @@
         <v>120857</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
@@ -7469,13 +7496,13 @@
         <v>179313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,13 +7517,13 @@
         <v>497958</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="H14" s="7">
         <v>671</v>
@@ -7505,13 +7532,13 @@
         <v>461900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="M14" s="7">
         <v>1158</v>
@@ -7523,10 +7550,10 @@
         <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,7 +7636,7 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -7630,7 +7657,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,13 +7672,13 @@
         <v>140821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="H17" s="7">
         <v>318</v>
@@ -7660,13 +7687,13 @@
         <v>210903</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="M17" s="7">
         <v>455</v>
@@ -7675,13 +7702,13 @@
         <v>351724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,13 +7723,13 @@
         <v>582029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="H18" s="7">
         <v>821</v>
@@ -7711,13 +7738,13 @@
         <v>535265</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="M18" s="7">
         <v>1348</v>
@@ -7726,13 +7753,13 @@
         <v>1117293</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,13 +7842,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7830,13 +7857,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7851,13 +7878,13 @@
         <v>163988</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H21" s="7">
         <v>382</v>
@@ -7866,13 +7893,13 @@
         <v>233752</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="M21" s="7">
         <v>559</v>
@@ -7881,13 +7908,13 @@
         <v>397740</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7902,13 +7929,13 @@
         <v>435098</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="H22" s="7">
         <v>617</v>
@@ -7917,13 +7944,13 @@
         <v>359665</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="M22" s="7">
         <v>1102</v>
@@ -7932,13 +7959,13 @@
         <v>794763</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8027,7 +8054,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8042,7 +8069,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8057,13 +8084,13 @@
         <v>227706</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>880</v>
@@ -8072,13 +8099,13 @@
         <v>585299</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M25" s="7">
         <v>1217</v>
@@ -8087,13 +8114,13 @@
         <v>813005</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,13 +8135,13 @@
         <v>469271</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="H26" s="7">
         <v>828</v>
@@ -8123,13 +8150,13 @@
         <v>441338</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="M26" s="7">
         <v>1518</v>
@@ -8138,13 +8165,13 @@
         <v>910609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,13 +8254,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8242,13 +8269,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>477</v>
+        <v>550</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,13 +8290,13 @@
         <v>638416</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>541</v>
+        <v>380</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="H29" s="7">
         <v>1819</v>
@@ -8278,13 +8305,13 @@
         <v>1241563</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="M29" s="7">
         <v>2557</v>
@@ -8293,13 +8320,13 @@
         <v>1879979</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8314,13 +8341,13 @@
         <v>2740818</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>551</v>
+        <v>390</v>
       </c>
       <c r="H30" s="7">
         <v>3539</v>
@@ -8329,28 +8356,28 @@
         <v>2560950</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>553</v>
+        <v>138</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="M30" s="7">
         <v>6172</v>
       </c>
       <c r="N30" s="7">
-        <v>5301766</v>
+        <v>5301767</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8392,7 +8419,7 @@
         <v>8735</v>
       </c>
       <c r="N31" s="7">
-        <v>7213242</v>
+        <v>7213243</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>36</v>

--- a/data/trans_orig/P1413-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7074FBE9-A220-4962-B82E-4F7CFE257610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCD76191-DA5B-4266-B3B1-8ADB8AB7C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4307FDCB-F05B-4308-99A6-35ADF1E266EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7E832A2-AA4C-411C-A9D2-B991E5E6C478}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="561">
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,25 +98,25 @@
     <t>2,47%</t>
   </si>
   <si>
-    <t>6,12%</t>
+    <t>5,91%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,7 +125,7 @@
     <t>96,12%</t>
   </si>
   <si>
-    <t>93,88%</t>
+    <t>94,09%</t>
   </si>
   <si>
     <t>97,53%</t>
@@ -134,19 +134,19 @@
     <t>95,25%</t>
   </si>
   <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,1567 +167,1549 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>5,39%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>90,84%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
   </si>
   <si>
     <t>59,83%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
   </si>
   <si>
     <t>69,4%</t>
@@ -2151,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE9BFC5-9E71-4DCA-B6AA-9E9FE9DE7934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B780695F-BDB5-46E0-ADC9-4DC8D8DB9330}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2565,10 +2547,10 @@
         <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2565,13 @@
         <v>683658</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>533</v>
@@ -2598,13 +2580,13 @@
         <v>564905</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>1185</v>
@@ -2613,13 +2595,13 @@
         <v>1248562</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,7 +2657,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2693,7 +2675,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2708,7 +2690,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2738,13 +2720,13 @@
         <v>91540</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -2753,13 +2735,13 @@
         <v>96626</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -2768,13 +2750,13 @@
         <v>188166</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2771,13 @@
         <v>547128</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>565</v>
@@ -2804,13 +2786,13 @@
         <v>593118</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>1086</v>
@@ -2819,13 +2801,13 @@
         <v>1140246</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,7 +2863,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2899,7 +2881,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2944,13 +2926,13 @@
         <v>100485</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -2959,13 +2941,13 @@
         <v>117662</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
@@ -2974,13 +2956,13 @@
         <v>218147</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2977,13 @@
         <v>418662</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>386</v>
@@ -3010,13 +2992,13 @@
         <v>397980</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>773</v>
@@ -3025,13 +3007,13 @@
         <v>816642</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,7 +3069,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3105,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3120,7 +3102,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3135,7 +3117,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3132,13 @@
         <v>117425</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>104</v>
@@ -3165,13 +3147,13 @@
         <v>105895</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -3180,13 +3162,13 @@
         <v>223320</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3183,13 @@
         <v>269285</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>292</v>
@@ -3216,13 +3198,13 @@
         <v>298091</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>565</v>
@@ -3231,13 +3213,13 @@
         <v>567376</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3275,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3311,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3326,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3341,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3338,13 @@
         <v>149801</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>243</v>
@@ -3371,13 +3353,13 @@
         <v>247219</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>403</v>
@@ -3386,13 +3368,13 @@
         <v>397020</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3389,13 @@
         <v>352665</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>418</v>
@@ -3422,13 +3404,13 @@
         <v>429623</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>781</v>
@@ -3437,13 +3419,13 @@
         <v>782288</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,7 +3499,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3532,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3547,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,16 +3541,16 @@
         <v>538</v>
       </c>
       <c r="D29" s="7">
-        <v>530249</v>
+        <v>530248</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>638</v>
@@ -3577,13 +3559,13 @@
         <v>650219</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M29" s="7">
         <v>1176</v>
@@ -3592,13 +3574,13 @@
         <v>1180467</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3595,13 @@
         <v>2746295</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>2659</v>
@@ -3628,13 +3610,13 @@
         <v>2728979</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>5335</v>
@@ -3643,13 +3625,13 @@
         <v>5475274</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3643,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>36</v>
@@ -3705,7 +3687,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD83C81-A6DB-48F8-B8EA-009E46EC8FD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7255EC55-D84C-4D24-9D28-EEF68F43BB87}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3744,7 +3726,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3857,7 +3839,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3872,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3887,7 +3869,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3884,13 @@
         <v>11254</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -3917,13 +3899,13 @@
         <v>16563</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -3932,13 +3914,13 @@
         <v>27817</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3935,13 @@
         <v>442892</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>405</v>
@@ -3968,13 +3950,13 @@
         <v>413667</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>841</v>
@@ -3983,13 +3965,13 @@
         <v>856559</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,7 +4045,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4078,7 +4060,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4108,13 +4090,13 @@
         <v>32852</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -4123,13 +4105,13 @@
         <v>49619</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M9" s="7">
         <v>76</v>
@@ -4138,13 +4120,13 @@
         <v>82471</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4141,13 @@
         <v>654235</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>526</v>
@@ -4174,13 +4156,13 @@
         <v>560636</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>1162</v>
@@ -4189,13 +4171,13 @@
         <v>1214871</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,7 +4233,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4269,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4284,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4314,13 +4296,13 @@
         <v>42863</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -4329,13 +4311,13 @@
         <v>92410</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -4344,13 +4326,13 @@
         <v>135273</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4347,13 @@
         <v>639000</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>578</v>
@@ -4380,13 +4362,13 @@
         <v>617164</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>1186</v>
@@ -4395,13 +4377,13 @@
         <v>1256164</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,7 +4439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4475,7 +4457,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4490,7 +4472,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4505,7 +4487,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4502,13 @@
         <v>55332</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>95</v>
@@ -4535,13 +4517,13 @@
         <v>107456</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -4550,13 +4532,13 @@
         <v>162788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4553,13 @@
         <v>559285</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H18" s="7">
         <v>443</v>
@@ -4586,13 +4568,13 @@
         <v>506808</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M18" s="7">
         <v>940</v>
@@ -4601,13 +4583,13 @@
         <v>1066092</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,7 +4645,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4681,7 +4663,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4696,7 +4678,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4711,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4708,13 @@
         <v>53060</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -4741,13 +4723,13 @@
         <v>117791</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M21" s="7">
         <v>157</v>
@@ -4756,13 +4738,13 @@
         <v>170851</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4759,13 @@
         <v>376369</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>300</v>
@@ -4792,13 +4774,13 @@
         <v>330009</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>642</v>
@@ -4807,13 +4789,13 @@
         <v>706378</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,7 +4851,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4902,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4917,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4914,13 @@
         <v>113593</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H25" s="7">
         <v>243</v>
@@ -4947,13 +4929,13 @@
         <v>261707</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M25" s="7">
         <v>345</v>
@@ -4962,13 +4944,13 @@
         <v>375300</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4965,13 @@
         <v>446044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H26" s="7">
         <v>451</v>
@@ -4998,13 +4980,13 @@
         <v>481268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M26" s="7">
         <v>853</v>
@@ -5013,13 +4995,13 @@
         <v>927312</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5108,7 +5090,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5123,7 +5105,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5120,13 @@
         <v>308953</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H29" s="7">
         <v>593</v>
@@ -5153,28 +5135,28 @@
         <v>645546</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M29" s="7">
         <v>881</v>
       </c>
       <c r="N29" s="7">
-        <v>954500</v>
+        <v>954499</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5171,13 @@
         <v>3117826</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H30" s="7">
         <v>2703</v>
@@ -5204,13 +5186,13 @@
         <v>2909552</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M30" s="7">
         <v>5624</v>
@@ -5219,13 +5201,13 @@
         <v>6027378</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,7 +5249,7 @@
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>36</v>
@@ -5281,7 +5263,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5303,7 +5285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99573FF9-5481-4D8B-A98B-9AF295E3CA00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017A1817-5A9C-4686-A589-541148D83326}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5320,7 +5302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5433,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5448,7 +5430,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5463,7 +5445,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5460,13 @@
         <v>2207</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5493,13 +5475,13 @@
         <v>10667</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5508,13 +5490,13 @@
         <v>12874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5511,13 @@
         <v>417256</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H6" s="7">
         <v>393</v>
@@ -5544,13 +5526,13 @@
         <v>385088</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M6" s="7">
         <v>784</v>
@@ -5559,13 +5541,13 @@
         <v>802344</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,7 +5621,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5654,7 +5636,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5669,7 +5651,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5666,13 @@
         <v>16560</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -5699,13 +5681,13 @@
         <v>32161</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>325</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -5714,13 +5696,13 @@
         <v>48722</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5717,13 @@
         <v>573936</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>547</v>
@@ -5750,13 +5732,13 @@
         <v>531383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>333</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>1100</v>
@@ -5765,13 +5747,13 @@
         <v>1105318</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,7 +5809,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5845,7 +5827,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5860,7 +5842,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5890,13 +5872,13 @@
         <v>45561</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -5905,13 +5887,13 @@
         <v>57571</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -5920,13 +5902,13 @@
         <v>103133</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5923,13 @@
         <v>623536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>606</v>
@@ -5956,13 +5938,13 @@
         <v>603815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>1202</v>
@@ -5971,13 +5953,13 @@
         <v>1227350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,7 +6015,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6051,7 +6033,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6081,7 +6063,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6078,13 @@
         <v>59145</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>359</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -6111,13 +6093,13 @@
         <v>86220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -6126,13 +6108,13 @@
         <v>145365</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6129,13 @@
         <v>586903</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H18" s="7">
         <v>522</v>
@@ -6162,28 +6144,28 @@
         <v>562857</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M18" s="7">
         <v>1050</v>
       </c>
       <c r="N18" s="7">
-        <v>1149761</v>
+        <v>1149760</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,7 +6207,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -6239,7 +6221,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6257,7 +6239,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6272,7 +6254,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6287,7 +6269,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6284,13 @@
         <v>59303</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="H21" s="7">
         <v>91</v>
@@ -6317,13 +6299,13 @@
         <v>103989</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="M21" s="7">
         <v>142</v>
@@ -6332,13 +6314,13 @@
         <v>163292</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6335,13 @@
         <v>418615</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>342</v>
@@ -6368,13 +6350,13 @@
         <v>392860</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>715</v>
@@ -6383,13 +6365,13 @@
         <v>811475</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,7 +6427,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6463,7 +6445,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6478,7 +6460,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6508,13 +6490,13 @@
         <v>94713</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H25" s="7">
         <v>170</v>
@@ -6523,13 +6505,13 @@
         <v>202131</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="M25" s="7">
         <v>270</v>
@@ -6538,13 +6520,13 @@
         <v>296844</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6541,13 @@
         <v>496615</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H26" s="7">
         <v>485</v>
@@ -6574,13 +6556,13 @@
         <v>575800</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="M26" s="7">
         <v>1012</v>
@@ -6589,13 +6571,13 @@
         <v>1072415</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,7 +6651,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6684,7 +6666,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6699,7 +6681,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6696,13 @@
         <v>277488</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>212</v>
+        <v>402</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="H29" s="7">
         <v>443</v>
@@ -6729,13 +6711,13 @@
         <v>492741</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="M29" s="7">
         <v>706</v>
@@ -6744,13 +6726,13 @@
         <v>770229</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6747,13 @@
         <v>3116862</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>222</v>
+        <v>411</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="H30" s="7">
         <v>2895</v>
@@ -6780,13 +6762,13 @@
         <v>3051801</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M30" s="7">
         <v>5863</v>
@@ -6795,13 +6777,13 @@
         <v>6168663</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,7 +6839,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6879,7 +6861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C6D3C5-2DCE-420D-9902-688573DEC805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A98D3D-11FA-467C-A9FC-8E2F1D367E31}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6896,7 +6878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7009,7 +6991,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7024,7 +7006,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>307</v>
+        <v>422</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7039,7 +7021,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,13 +7036,13 @@
         <v>16858</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>426</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -7069,13 +7051,13 @@
         <v>34770</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -7087,10 +7069,10 @@
         <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7087,13 @@
         <v>360821</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>292</v>
+        <v>433</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H6" s="7">
         <v>191</v>
@@ -7120,13 +7102,13 @@
         <v>320187</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M6" s="7">
         <v>356</v>
@@ -7135,13 +7117,13 @@
         <v>681008</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,7 +7197,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7224,13 +7206,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7239,13 +7221,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7242,13 @@
         <v>30588</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -7275,13 +7257,13 @@
         <v>55982</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M9" s="7">
         <v>71</v>
@@ -7290,13 +7272,13 @@
         <v>86569</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,13 +7293,13 @@
         <v>395640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H10" s="7">
         <v>411</v>
@@ -7326,13 +7308,13 @@
         <v>442596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>461</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7">
         <v>690</v>
@@ -7341,13 +7323,13 @@
         <v>838235</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>464</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,7 +7385,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7421,7 +7403,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7430,13 +7412,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7445,13 +7427,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7448,13 @@
         <v>58456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -7481,13 +7463,13 @@
         <v>120857</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
@@ -7496,13 +7478,13 @@
         <v>179313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,13 +7499,13 @@
         <v>497958</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H14" s="7">
         <v>671</v>
@@ -7532,13 +7514,13 @@
         <v>461900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="M14" s="7">
         <v>1158</v>
@@ -7547,13 +7529,13 @@
         <v>959859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,7 +7591,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7627,7 +7609,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7636,7 +7618,7 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -7651,13 +7633,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,13 +7654,13 @@
         <v>140821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H17" s="7">
         <v>318</v>
@@ -7687,13 +7669,13 @@
         <v>210903</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="M17" s="7">
         <v>455</v>
@@ -7702,13 +7684,13 @@
         <v>351724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>496</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,13 +7705,13 @@
         <v>582029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H18" s="7">
         <v>821</v>
@@ -7738,13 +7720,13 @@
         <v>535265</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M18" s="7">
         <v>1348</v>
@@ -7753,13 +7735,13 @@
         <v>1117293</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,7 +7797,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7833,7 +7815,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7842,13 +7824,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>508</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7857,13 +7839,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,13 +7860,13 @@
         <v>163988</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="H21" s="7">
         <v>382</v>
@@ -7893,13 +7875,13 @@
         <v>233752</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="M21" s="7">
         <v>559</v>
@@ -7908,13 +7890,13 @@
         <v>397740</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7929,13 +7911,13 @@
         <v>435098</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="H22" s="7">
         <v>617</v>
@@ -7944,13 +7926,13 @@
         <v>359665</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="M22" s="7">
         <v>1102</v>
@@ -7959,13 +7941,13 @@
         <v>794763</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8021,7 +8003,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8054,7 +8036,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8069,7 +8051,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,13 +8066,13 @@
         <v>227706</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="H25" s="7">
         <v>880</v>
@@ -8099,13 +8081,13 @@
         <v>585299</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="M25" s="7">
         <v>1217</v>
@@ -8114,13 +8096,13 @@
         <v>813005</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8135,13 +8117,13 @@
         <v>469271</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="H26" s="7">
         <v>828</v>
@@ -8150,13 +8132,13 @@
         <v>441338</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="M26" s="7">
         <v>1518</v>
@@ -8165,13 +8147,13 @@
         <v>910609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8245,7 +8227,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8254,13 +8236,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8269,13 +8251,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8290,13 +8272,13 @@
         <v>638416</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>380</v>
+        <v>544</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="H29" s="7">
         <v>1819</v>
@@ -8305,13 +8287,13 @@
         <v>1241563</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="M29" s="7">
         <v>2557</v>
@@ -8320,13 +8302,13 @@
         <v>1879979</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,13 +8323,13 @@
         <v>2740818</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>390</v>
+        <v>554</v>
       </c>
       <c r="H30" s="7">
         <v>3539</v>
@@ -8356,13 +8338,13 @@
         <v>2560950</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>138</v>
+        <v>556</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M30" s="7">
         <v>6172</v>
@@ -8371,13 +8353,13 @@
         <v>5301767</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,7 +8415,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1413-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C0316EF-6094-4386-8DDE-6D6765529D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B6DD63C-199D-49D1-A71D-52CE19B9B272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5C69635-29E7-45A6-A6C5-3F50AFF6EF1E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{760A111F-870E-4535-B568-287E426F60D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="581">
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>7,05%</t>
@@ -191,7 +191,7 @@
     <t>93,16%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>14,33%</t>
@@ -248,7 +248,7 @@
     <t>87,64%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>19,36%</t>
@@ -305,7 +305,7 @@
     <t>81,28%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>30,37%</t>
@@ -362,61 +362,118 @@
     <t>74,53%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
   </si>
   <si>
     <t>16,18%</t>
@@ -731,99 +788,159 @@
     <t>83,12%</t>
   </si>
   <si>
-    <t>20,3%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>83,13%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
     <t>86,33%</t>
   </si>
   <si>
@@ -1100,52 +1217,112 @@
     <t>85,6%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>8,18%</t>
@@ -1205,352 +1382,406 @@
     <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
 </sst>
 </file>
@@ -1962,8 +2193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D00769-D6BA-44EB-A845-B2E8710DA8ED}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD25F0C-8622-4E6B-91F3-B938A2104033}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2855,10 +3086,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="D19" s="7">
-        <v>149801</v>
+        <v>77338</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2870,10 +3101,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="I19" s="7">
-        <v>247219</v>
+        <v>127508</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2885,10 +3116,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>403</v>
+        <v>222</v>
       </c>
       <c r="N19" s="7">
-        <v>397020</v>
+        <v>204847</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2906,10 +3137,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="D20" s="7">
-        <v>352665</v>
+        <v>215245</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2921,10 +3152,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>418</v>
+        <v>232</v>
       </c>
       <c r="I20" s="7">
-        <v>429623</v>
+        <v>215426</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2936,10 +3167,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>781</v>
+        <v>452</v>
       </c>
       <c r="N20" s="7">
-        <v>782288</v>
+        <v>430670</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2957,10 +3188,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2972,10 +3203,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2987,10 +3218,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3004,55 +3235,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>538</v>
+        <v>77</v>
       </c>
       <c r="D22" s="7">
-        <v>530249</v>
+        <v>72462</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>638</v>
+        <v>104</v>
       </c>
       <c r="I22" s="7">
-        <v>650219</v>
+        <v>119711</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1176</v>
+        <v>181</v>
       </c>
       <c r="N22" s="7">
-        <v>1180467</v>
+        <v>192173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,49 +3292,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2676</v>
+        <v>143</v>
       </c>
       <c r="D23" s="7">
-        <v>2746295</v>
+        <v>137421</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>2659</v>
+        <v>186</v>
       </c>
       <c r="I23" s="7">
-        <v>2728979</v>
+        <v>214197</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>5335</v>
+        <v>329</v>
       </c>
       <c r="N23" s="7">
-        <v>5475273</v>
+        <v>351618</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,63 +3343,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>538</v>
+      </c>
+      <c r="D25" s="7">
+        <v>530248</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>638</v>
+      </c>
+      <c r="I25" s="7">
+        <v>650219</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1176</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1180467</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2676</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2746295</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2659</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2728978</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5335</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5475274</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3181,8 +3568,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDCFC56-B496-4727-9890-D45D1148BB22}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB882D5-0764-4B97-9A9C-A56BF23A235E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3198,7 +3585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3305,13 +3692,13 @@
         <v>11254</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3320,13 +3707,13 @@
         <v>16563</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -3338,10 +3725,10 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3743,13 @@
         <v>442892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
@@ -3371,13 +3758,13 @@
         <v>413667</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>841</v>
@@ -3389,10 +3776,10 @@
         <v>29</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3847,13 @@
         <v>32852</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -3475,13 +3862,13 @@
         <v>49619</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>76</v>
@@ -3490,13 +3877,13 @@
         <v>82471</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3898,13 @@
         <v>654235</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>526</v>
@@ -3526,13 +3913,13 @@
         <v>560636</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>1162</v>
@@ -3541,13 +3928,13 @@
         <v>1214871</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +4002,13 @@
         <v>42863</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -3630,13 +4017,13 @@
         <v>92410</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -3645,13 +4032,13 @@
         <v>135273</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +4053,13 @@
         <v>639000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>578</v>
@@ -3681,13 +4068,13 @@
         <v>617164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>1186</v>
@@ -3696,13 +4083,13 @@
         <v>1256164</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,10 +4157,10 @@
         <v>55332</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>55</v>
@@ -3785,13 +4172,13 @@
         <v>107456</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -3800,13 +4187,13 @@
         <v>162788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +4208,13 @@
         <v>559285</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>443</v>
@@ -3836,13 +4223,13 @@
         <v>506808</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>940</v>
@@ -3851,13 +4238,13 @@
         <v>1066092</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,10 +4315,10 @@
         <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -3940,13 +4327,13 @@
         <v>117791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -3955,13 +4342,13 @@
         <v>170851</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,10 +4366,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>300</v>
@@ -3991,13 +4378,13 @@
         <v>330009</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>642</v>
@@ -4006,13 +4393,13 @@
         <v>706378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,49 +4461,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>113593</v>
+        <v>58504</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
-        <v>243</v>
+        <v>106</v>
       </c>
       <c r="I19" s="7">
-        <v>261707</v>
+        <v>110163</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
-        <v>345</v>
+        <v>158</v>
       </c>
       <c r="N19" s="7">
-        <v>375300</v>
+        <v>168667</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,49 +4512,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>402</v>
+        <v>230</v>
       </c>
       <c r="D20" s="7">
-        <v>446044</v>
+        <v>251282</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
-        <v>451</v>
+        <v>238</v>
       </c>
       <c r="I20" s="7">
-        <v>481268</v>
+        <v>243833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
-        <v>853</v>
+        <v>468</v>
       </c>
       <c r="N20" s="7">
-        <v>927312</v>
+        <v>495115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,10 +4563,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4191,10 +4578,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4206,10 +4593,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4223,55 +4610,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>288</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7">
-        <v>308953</v>
+        <v>55089</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>593</v>
+        <v>137</v>
       </c>
       <c r="I22" s="7">
-        <v>645546</v>
+        <v>151544</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>881</v>
+        <v>187</v>
       </c>
       <c r="N22" s="7">
-        <v>954499</v>
+        <v>206633</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,49 +4667,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2921</v>
+        <v>172</v>
       </c>
       <c r="D23" s="7">
-        <v>3117826</v>
+        <v>194762</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
-        <v>2703</v>
+        <v>213</v>
       </c>
       <c r="I23" s="7">
-        <v>2909552</v>
+        <v>237435</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
-        <v>5624</v>
+        <v>385</v>
       </c>
       <c r="N23" s="7">
-        <v>6027378</v>
+        <v>432197</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,63 +4718,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>288</v>
+      </c>
+      <c r="D25" s="7">
+        <v>308953</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
+        <v>593</v>
+      </c>
+      <c r="I25" s="7">
+        <v>645546</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="7">
+        <v>881</v>
+      </c>
+      <c r="N25" s="7">
+        <v>954499</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2921</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3117826</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2703</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2909552</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5624</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6027378</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4400,8 +4943,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A5BE05-6388-417C-88BC-52B608A95F48}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8AF77F-EE59-478D-97AB-CE73BAD62A6B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4417,7 +4960,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +5067,13 @@
         <v>2207</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4539,13 +5082,13 @@
         <v>10667</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4554,13 +5097,13 @@
         <v>12874</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +5118,13 @@
         <v>417256</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>393</v>
@@ -4590,13 +5133,13 @@
         <v>385088</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>784</v>
@@ -4605,13 +5148,13 @@
         <v>802344</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +5222,13 @@
         <v>16560</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -4694,13 +5237,13 @@
         <v>32161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -4709,13 +5252,13 @@
         <v>48722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +5273,13 @@
         <v>573936</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>547</v>
@@ -4745,13 +5288,13 @@
         <v>531383</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>1100</v>
@@ -4760,13 +5303,13 @@
         <v>1105318</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +5377,13 @@
         <v>45561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4849,13 +5392,13 @@
         <v>57571</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -4864,13 +5407,13 @@
         <v>103133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +5428,13 @@
         <v>623536</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>606</v>
@@ -4900,13 +5443,13 @@
         <v>603815</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>1202</v>
@@ -4915,13 +5458,13 @@
         <v>1227350</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5532,13 @@
         <v>59145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -5004,13 +5547,13 @@
         <v>86220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>134</v>
@@ -5019,13 +5562,13 @@
         <v>145365</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5583,13 @@
         <v>586903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -5055,13 +5598,13 @@
         <v>562857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>1050</v>
@@ -5070,13 +5613,13 @@
         <v>1149760</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5687,13 @@
         <v>59303</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -5159,13 +5702,13 @@
         <v>103989</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -5174,13 +5717,13 @@
         <v>163292</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5738,13 @@
         <v>418615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>342</v>
@@ -5210,13 +5753,13 @@
         <v>392860</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>715</v>
@@ -5225,13 +5768,13 @@
         <v>811475</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,49 +5836,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D19" s="7">
-        <v>94713</v>
+        <v>44558</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="I19" s="7">
-        <v>202131</v>
+        <v>80235</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="N19" s="7">
-        <v>296844</v>
+        <v>124793</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,49 +5887,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>527</v>
+        <v>283</v>
       </c>
       <c r="D20" s="7">
-        <v>496615</v>
+        <v>289772</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="H20" s="7">
-        <v>485</v>
+        <v>276</v>
       </c>
       <c r="I20" s="7">
-        <v>575800</v>
+        <v>297527</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="M20" s="7">
-        <v>1012</v>
+        <v>559</v>
       </c>
       <c r="N20" s="7">
-        <v>1072415</v>
+        <v>587299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,10 +5938,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5410,10 +5953,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5425,10 +5968,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5442,55 +5985,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>263</v>
+        <v>58</v>
       </c>
       <c r="D22" s="7">
-        <v>277488</v>
+        <v>50155</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
-        <v>443</v>
+        <v>92</v>
       </c>
       <c r="I22" s="7">
-        <v>492741</v>
+        <v>121896</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
-        <v>706</v>
+        <v>150</v>
       </c>
       <c r="N22" s="7">
-        <v>770229</v>
+        <v>172051</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,49 +6042,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2968</v>
+        <v>244</v>
       </c>
       <c r="D23" s="7">
-        <v>3116862</v>
+        <v>206843</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
-        <v>2895</v>
+        <v>209</v>
       </c>
       <c r="I23" s="7">
-        <v>3051801</v>
+        <v>278273</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
-        <v>5863</v>
+        <v>453</v>
       </c>
       <c r="N23" s="7">
-        <v>6168663</v>
+        <v>485116</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,63 +6093,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>263</v>
+      </c>
+      <c r="D25" s="7">
+        <v>277488</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H25" s="7">
+        <v>443</v>
+      </c>
+      <c r="I25" s="7">
+        <v>492741</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M25" s="7">
+        <v>706</v>
+      </c>
+      <c r="N25" s="7">
+        <v>770229</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2968</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3116862</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2895</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3051801</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5863</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6168663</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5619,8 +6318,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFACCD11-1EDF-4B98-808A-78D0AC5E2625}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3955778E-5ACD-4BF8-AA63-36389B63C146}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5636,7 +6335,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5740,46 +6439,46 @@
         <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>16858</v>
+        <v>18393</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>34770</v>
+        <v>31375</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>391</v>
+        <v>40</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>51628</v>
+        <v>49768</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>453</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,46 +6490,46 @@
         <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>360821</v>
+        <v>381594</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="H5" s="7">
         <v>191</v>
       </c>
       <c r="I5" s="7">
-        <v>320187</v>
+        <v>281825</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>48</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="M5" s="7">
         <v>356</v>
       </c>
       <c r="N5" s="7">
-        <v>681008</v>
+        <v>663419</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>41</v>
+        <v>460</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +6541,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5857,7 +6556,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5872,7 +6571,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5895,46 +6594,46 @@
         <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>30588</v>
+        <v>29879</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>55982</v>
+        <v>51528</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>467</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
       </c>
       <c r="N7" s="7">
-        <v>86570</v>
+        <v>81407</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,46 +6645,46 @@
         <v>279</v>
       </c>
       <c r="D8" s="7">
-        <v>395640</v>
+        <v>391408</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="H8" s="7">
         <v>411</v>
       </c>
       <c r="I8" s="7">
-        <v>442595</v>
+        <v>459976</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>475</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>476</v>
       </c>
       <c r="M8" s="7">
         <v>690</v>
       </c>
       <c r="N8" s="7">
-        <v>838235</v>
+        <v>851384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,7 +6696,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>426228</v>
+        <v>421287</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6012,7 +6711,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6027,7 +6726,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>924805</v>
+        <v>932791</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6050,46 +6749,46 @@
         <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>58456</v>
+        <v>57066</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="H10" s="7">
         <v>174</v>
       </c>
       <c r="I10" s="7">
-        <v>120857</v>
+        <v>112637</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
       </c>
       <c r="N10" s="7">
-        <v>179313</v>
+        <v>169703</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,46 +6800,46 @@
         <v>487</v>
       </c>
       <c r="D11" s="7">
-        <v>497958</v>
+        <v>478512</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="H11" s="7">
         <v>671</v>
       </c>
       <c r="I11" s="7">
-        <v>461901</v>
+        <v>429162</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>492</v>
       </c>
       <c r="M11" s="7">
         <v>1158</v>
       </c>
       <c r="N11" s="7">
-        <v>959859</v>
+        <v>907674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,7 +6851,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556414</v>
+        <v>535578</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6167,7 +6866,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6182,7 +6881,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1139172</v>
+        <v>1077377</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6205,46 +6904,46 @@
         <v>137</v>
       </c>
       <c r="D13" s="7">
-        <v>140821</v>
+        <v>132391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>495</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>318</v>
       </c>
       <c r="I13" s="7">
-        <v>210903</v>
+        <v>193156</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="M13" s="7">
         <v>455</v>
       </c>
       <c r="N13" s="7">
-        <v>351724</v>
+        <v>325546</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,46 +6955,46 @@
         <v>527</v>
       </c>
       <c r="D14" s="7">
-        <v>582029</v>
+        <v>754282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>503</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>821</v>
       </c>
       <c r="I14" s="7">
-        <v>535264</v>
+        <v>518697</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>1348</v>
       </c>
       <c r="N14" s="7">
-        <v>1117293</v>
+        <v>1272980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,7 +7006,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722850</v>
+        <v>886673</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6322,7 +7021,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746167</v>
+        <v>711853</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6337,7 +7036,7 @@
         <v>1803</v>
       </c>
       <c r="N15" s="7">
-        <v>1469017</v>
+        <v>1598526</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6360,46 +7059,46 @@
         <v>177</v>
       </c>
       <c r="D16" s="7">
-        <v>163988</v>
+        <v>153242</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7">
         <v>382</v>
       </c>
       <c r="I16" s="7">
-        <v>233752</v>
+        <v>213669</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="M16" s="7">
         <v>559</v>
       </c>
       <c r="N16" s="7">
-        <v>397740</v>
+        <v>366911</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,46 +7110,46 @@
         <v>485</v>
       </c>
       <c r="D17" s="7">
-        <v>435098</v>
+        <v>406995</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="H17" s="7">
         <v>617</v>
       </c>
       <c r="I17" s="7">
-        <v>359665</v>
+        <v>331059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="M17" s="7">
         <v>1102</v>
       </c>
       <c r="N17" s="7">
-        <v>794763</v>
+        <v>738053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,7 +7161,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6477,7 +7176,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>593417</v>
+        <v>544728</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6492,7 +7191,7 @@
         <v>1661</v>
       </c>
       <c r="N18" s="7">
-        <v>1192503</v>
+        <v>1104964</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6512,49 +7211,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>337</v>
+        <v>156</v>
       </c>
       <c r="D19" s="7">
-        <v>227706</v>
+        <v>99323</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="H19" s="7">
-        <v>880</v>
+        <v>372</v>
       </c>
       <c r="I19" s="7">
-        <v>585299</v>
+        <v>388406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="M19" s="7">
-        <v>1217</v>
+        <v>528</v>
       </c>
       <c r="N19" s="7">
-        <v>813005</v>
+        <v>487729</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,49 +7262,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>690</v>
+        <v>413</v>
       </c>
       <c r="D20" s="7">
-        <v>469271</v>
+        <v>268124</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
-        <v>828</v>
+        <v>455</v>
       </c>
       <c r="I20" s="7">
-        <v>441338</v>
+        <v>219962</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
-        <v>1518</v>
+        <v>868</v>
       </c>
       <c r="N20" s="7">
-        <v>910609</v>
+        <v>488085</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,10 +7313,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696977</v>
+        <v>367447</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6629,10 +7328,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6644,10 +7343,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2735</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1723614</v>
+        <v>975814</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6661,55 +7360,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>738</v>
+        <v>181</v>
       </c>
       <c r="D22" s="7">
-        <v>638416</v>
+        <v>111767</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
-        <v>1819</v>
+        <v>508</v>
       </c>
       <c r="I22" s="7">
-        <v>1241563</v>
+        <v>242893</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
-        <v>2557</v>
+        <v>689</v>
       </c>
       <c r="N22" s="7">
-        <v>1879979</v>
+        <v>354660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,49 +7417,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2633</v>
+        <v>277</v>
       </c>
       <c r="D23" s="7">
-        <v>2740818</v>
+        <v>170992</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="H23" s="7">
-        <v>3539</v>
+        <v>373</v>
       </c>
       <c r="I23" s="7">
-        <v>2560950</v>
+        <v>182938</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="M23" s="7">
-        <v>6172</v>
+        <v>650</v>
       </c>
       <c r="N23" s="7">
-        <v>5301767</v>
+        <v>353930</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,63 +7468,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>738</v>
+      </c>
+      <c r="D25" s="7">
+        <v>602060</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1819</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1233663</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2557</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1835724</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2633</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2851908</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3539</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2423619</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6172</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5275526</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3371</v>
       </c>
-      <c r="D24" s="7">
-        <v>3379234</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3453968</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5358</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802513</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657282</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8729</v>
       </c>
-      <c r="N24" s="7">
-        <v>7181746</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7111250</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
